--- a/Куделин/Солнечная энергетика/Solar AsiaPacific India.xlsx
+++ b/Куделин/Солнечная энергетика/Solar AsiaPacific India.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>406.80967033668105</c:v>
+                  <c:v>0.19209683325811552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.19539027724807</c:v>
+                  <c:v>0.25414823550789262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.85287640184856</c:v>
+                  <c:v>0.33704555373295825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>726.00938230671886</c:v>
+                  <c:v>0.44612022616226682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>859.1178290864267</c:v>
+                  <c:v>0.58831590702482761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006.4376267084292</c:v>
+                  <c:v>0.7747433139296992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34.647721367147682</c:v>
+                  <c:v>12.518051212833837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.097829998616611</c:v>
+                  <c:v>23.102856116736518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.812566691023562</c:v>
+                  <c:v>38.505532570661977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.471908491039457</c:v>
+                  <c:v>48.399132640978507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.394557272995542</c:v>
+                  <c:v>61.180559379089772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.09121736759832</c:v>
+                  <c:v>71.767894125751113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627543184"/>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85347472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627543184"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542096"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543184"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6109526375765</c:v>
+                  <c:v>10.707849057584076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0870095388595</c:v>
+                  <c:v>16.33451460453119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6707971542805</c:v>
+                  <c:v>22.079306678254287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3823526646202</c:v>
+                  <c:v>27.983447470906302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9825826101276</c:v>
+                  <c:v>37.176678959659434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4146725428118</c:v>
+                  <c:v>10.783160069458198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.804793269788</c:v>
+                  <c:v>16.585722759358045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2226860026099</c:v>
+                  <c:v>22.663461619079602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.2932157352679</c:v>
+                  <c:v>29.106475239744853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7476461670874</c:v>
+                  <c:v>39.264776570425305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627543728"/>
-        <c:axId val="1627532304"/>
+        <c:axId val="-85372496"/>
+        <c:axId val="-85371952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627543728"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532304"/>
+        <c:crossAx val="-85371952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627532304"/>
+        <c:axId val="-85371952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543728"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6590648421798</c:v>
+                  <c:v>10.973448687295084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5678929879857</c:v>
+                  <c:v>17.126628412519295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.0967734202404</c:v>
+                  <c:v>23.814057661188361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0284619691768</c:v>
+                  <c:v>31.195324898863802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1451317740275</c:v>
+                  <c:v>43.003051974490234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0569344805083</c:v>
+                  <c:v>10.976852244584395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.3989299095756</c:v>
+                  <c:v>17.136240961122418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5252031236755</c:v>
+                  <c:v>23.834634366554766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2130629342778</c:v>
+                  <c:v>31.233120845976234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4572025142479</c:v>
+                  <c:v>43.071686149423613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627524144"/>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85361616"/>
+        <c:axId val="-85346384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627524144"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627526864"/>
+        <c:crossAx val="-85346384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85346384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627524144"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>7.066010101010102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>9.8160606060606059E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.14701545195101701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.20291885606060611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.28626660606060611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>0.42849942624878928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.60852142628919337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.82912642513131307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>1.1165856081616159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>1.463806013469489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.8525675274694899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>2.2911237799999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>2.7484078751515151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>3.3303571682129509</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>4.3826757587597651</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>6.7389046300174407</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>12.16393079496509</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>17.556538376216551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>32.386497215403303</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>62.967796824061253</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>95.624065743606096</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>141.70148508443501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>219.84462125800599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>309.36656131676813</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>390.37162542473442</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>466.8954102833199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>591.00746619838731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>743.17852652375313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627540464"/>
-        <c:axId val="1627550800"/>
+        <c:axId val="-85345840"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85345840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627550800"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627550800"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627540464"/>
+        <c:crossAx val="-85345840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627544816"/>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85351280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627544816"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627528496"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627544816"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627532848"/>
-        <c:axId val="1627545360"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85361072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627532848"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545360"/>
+        <c:crossAx val="-85361072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627545360"/>
+        <c:axId val="-85361072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532848"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627530128"/>
-        <c:axId val="1627545904"/>
+        <c:axId val="-85351824"/>
+        <c:axId val="-85342576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627530128"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545904"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627545904"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530128"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54525258633732121</v>
+        <v>2.3281978775878615E-4</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71453417727907109</v>
+        <v>2.9431553464977857E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.92747877174237137</v>
+        <v>3.7737251401391222E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2015737845084296</v>
+        <v>4.7792285931862687E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5528180353096033</v>
+        <v>6.0792215543059493E-4</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0100458913936805</v>
+        <v>7.7999922588148872E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.5762191014712084</v>
+        <v>9.9641184826100657E-4</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3101803313624023</v>
+        <v>1.269320019994299E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.2439862519333937</v>
+        <v>1.6169526491259215E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4387955353100015</v>
+        <v>2.0563666887338989E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.9490017469064842</v>
+        <v>2.6076146557644196E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.855644562342162</v>
+        <v>3.2988253451680881E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.26647507450339</v>
+        <v>4.1579454582281478E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.260604552287674</v>
+        <v>5.2399260391428051E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>17.94800380487068</v>
+        <v>6.6556804342144532E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.623832054145954</v>
+        <v>8.5905255915318165E-3</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.324820235677269</v>
+        <v>1.1269991576738395E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.240814270227716</v>
+        <v>1.4575218863917369E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.554439753945047</v>
+        <v>1.9313595395060737E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.371337274706768</v>
+        <v>2.602817819041249E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.566706356163337</v>
+        <v>3.4584388835646192E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.326096083246938</v>
+        <v>4.6055438579021273E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.385719940567014</v>
+        <v>6.2051402249777114E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.6574861246005</v>
+        <v>8.289731822506563E-2</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.15650590487027</v>
+        <v>0.10907467242930857</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.10844677970783</v>
+        <v>0.14219568086256082</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.31979762200245</v>
+        <v>0.18642740690487161</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.54626268734742223</v>
+        <v>1.2429207978597962E-3</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.2607968646264933</v>
+        <v>1.5372363325095748E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.1882756363688647</v>
+        <v>1.9146088465234871E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.3898494208772942</v>
+        <v>2.3925317058421137E-3</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9426674561868973</v>
+        <v>3.0004538612727087E-3</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9527133475805778</v>
+        <v>3.7804530871541975E-3</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.528932449051787</v>
+        <v>4.7768649354152041E-3</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.83911278041419</v>
+        <v>6.0461849554095028E-3</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.083099032347583</v>
+        <v>7.6631376045354239E-3</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.521894567657583</v>
+        <v>9.7195042932693224E-3</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.470896314564065</v>
+        <v>1.2327118949033742E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.326540876906229</v>
+        <v>1.5625944294201829E-2</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.593015951409619</v>
+        <v>1.9783889752429978E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>63.853620503697293</v>
+        <v>2.5023815791572784E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>81.801624308567966</v>
+        <v>3.1679496225787238E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.42545636271392</v>
+        <v>4.0270021817319056E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>132.7502765983912</v>
+        <v>5.1540013394057449E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>167.99109086861893</v>
+        <v>6.6115232257974818E-2</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>211.54553062256397</v>
+        <v>8.5428827653035555E-2</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>264.91686789727072</v>
+        <v>0.11145700584344805</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>329.48357425343409</v>
+        <v>0.14604139467909424</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>406.80967033668105</v>
+        <v>0.19209683325811552</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>498.19539027724807</v>
+        <v>0.25414823550789262</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>604.85287640184856</v>
+        <v>0.33704555373295825</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>726.00938230671886</v>
+        <v>0.44612022616226682</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>859.1178290864267</v>
+        <v>0.58831590702482761</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1006.4376267084292</v>
+        <v>0.7747433139296992</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>911.27954187542139</v>
+        <v>-94.383341519078101</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>526.01445153874033</v>
+        <v>-73.030858352336224</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>430502.24851474108</v>
+        <v>667.20844043720285</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29181828862660791</v>
+        <v>2.3210091290882541E-5</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.574363078559921</v>
+        <v>2.0460873697059678E-5</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.7620624385032748</v>
+        <v>1.7189292899180456E-5</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.450026743278528</v>
+        <v>1.3454769472076946E-5</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.3601152698863</v>
+        <v>1.6566961188910728E-5</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.185841609357901</v>
+        <v>5.373854706420386E-5</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>90.5504712583854</v>
+        <v>6.9796804657942091E-5</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>164.42807656080643</v>
+        <v>1.023219484874995E-4</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>291.21139952633104</v>
+        <v>1.1064264108690551E-4</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>506.41708751091801</v>
+        <v>7.1610756348326906E-5</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>868.109400516856</v>
+        <v>2.6287348717540857E-5</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1464.4046847656894</v>
+        <v>1.8813087083696823E-3</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2453.222480146891</v>
+        <v>1.8676321849301267E-3</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>4067.7124333546362</v>
+        <v>2.4976189880346494E-3</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6673.031341426361</v>
+        <v>6.6130243340917529E-3</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>10732.640160737139</v>
+        <v>0.61894405857132173</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>17069.756076789326</v>
+        <v>4.1920923967524066</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>27079.365270324644</v>
+        <v>11.335913039253269</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>42698.655787729826</v>
+        <v>23.266838854696669</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>66744.974596757835</v>
+        <v>41.666030860491006</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>101077.95518777623</v>
+        <v>130.18669897719235</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>148429.189832131</v>
+        <v>455.92853738599553</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>213318.42865034827</v>
+        <v>1301.5616009813305</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>312017.3992958843</v>
+        <v>2109.6250178623905</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>445323.87665165961</v>
+        <v>3391.588610596179</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>625383.64797410183</v>
+        <v>4585.6591395970145</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>830430.40344067791</v>
+        <v>8908.2151563069328</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>957.64804795579789</v>
+        <v>-99.185835533271501</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>714.56243352629906</v>
+        <v>-99.208505990859535</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1910.8615483291969</v>
+        <v>50.531011555643012</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.54020208128681613</v>
+        <v>4.8176852627462644E-3</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2547362585658872</v>
+        <v>4.5233697280964861E-3</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1822150303082588</v>
+        <v>4.1459972140825731E-3</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3837888148166884</v>
+        <v>3.6680743547639469E-3</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9355967491161898</v>
+        <v>4.0702532094343625E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9416022364694667</v>
+        <v>7.3306580239569123E-3</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5158011359204746</v>
+        <v>8.354448195897925E-3</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.822951164252574</v>
+        <v>1.0115431206206659E-2</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.064917214165764</v>
+        <v>1.0518680577282757E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.503712749475763</v>
+        <v>8.4623138885488586E-3</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.463696314564064</v>
+        <v>5.1271189490337413E-3</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.267540876906232</v>
+        <v>4.3374055705798165E-2</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.530015951409617</v>
+        <v>4.3216110247570022E-2</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.77862050369729</v>
+        <v>4.9976184208427213E-2</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>81.688624308567967</v>
+        <v>8.1320503774212766E-2</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>103.59845636271392</v>
+        <v>0.78672997818268098</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>130.65127659839121</v>
+        <v>2.0474599866059426</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>164.55809086861893</v>
+        <v>3.3668847677420248</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>206.63653062256398</v>
+        <v>4.8235711723469645</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>258.35048789727074</v>
+        <v>6.4549229941565534</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>317.92759425343411</v>
+        <v>11.409938605320905</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>385.26509033668106</v>
+        <v>21.352483166741884</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>461.86408027724809</v>
+        <v>36.077161764492097</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>558.58517640184857</v>
+        <v>45.930654446267042</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>667.32591486593685</v>
+        <v>58.237347214619753</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>790.8120181017116</v>
+        <v>67.71749507769033</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>911.27954187542139</v>
+        <v>94.383341519078101</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7695156507317829</v>
+        <v>1.7085310455062711E-4</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8926045323714789</v>
+        <v>2.2082082922236801E-4</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4469733751454203</v>
+        <v>2.9794687659299188E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9149917775308332</v>
+        <v>6.5542403131289037E-4</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3963063509255971</v>
+        <v>9.5421097828541192E-4</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.9830859634146005</v>
+        <v>1.2515390149622889E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.4698673563562599</v>
+        <v>1.6288065409218262E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0808266928837895</v>
+        <v>2.4273507852208393E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.754015920774382</v>
+        <v>3.1283900264805057E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.5678500914778759</v>
+        <v>4.0178945781034177E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.415970767839053</v>
+        <v>4.8435849937032462E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.295589237088286</v>
+        <v>5.3884365687209123E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.308925365773346</v>
+        <v>3.9008010700952761E-3</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.141929875753926</v>
+        <v>1.2233885724893978E-2</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>13.662158873789672</v>
+        <v>1.5372967736100796E-2</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>14.93624443569667</v>
+        <v>2.0311390409449528E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>16.075188236285371</v>
+        <v>3.2327639088383542E-2</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>17.28203087404767</v>
+        <v>0.10534406155347342</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>18.697970716572296</v>
+        <v>0.18540670880954568</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>20.182334529143525</v>
+        <v>0.40445115327478365</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>21.490555832064686</v>
+        <v>0.63710700030679157</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>23.091741367147684</v>
+        <v>0.96207121283383745</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>25.553249998616611</v>
+        <v>1.5582761167365182</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>29.481256691023571</v>
+        <v>2.1742225706619887</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>34.204208491039459</v>
+        <v>2.1314326409785123</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>37.711089832213524</v>
+        <v>2.4970919383077543</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>42.785406382883167</v>
+        <v>3.4620831410359614</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.770525751741884</v>
+        <v>1.1809541146516373E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.8986651384320847</v>
+        <v>6.2814268898284285E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4530339812060262</v>
+        <v>6.3585529371990527E-3</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.921052383591439</v>
+        <v>6.7160300919189512E-3</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.402366956986203</v>
+        <v>7.014817038891473E-3</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>6.990156670485308</v>
+        <v>8.3222460856693607E-3</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.4809784674673709</v>
+        <v>1.2739917652032936E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.093958006015102</v>
+        <v>1.5558663916533969E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.7701775369359982</v>
+        <v>1.9290006188096669E-2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.5860319096596935</v>
+        <v>2.2199712759921598E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.43415258602087</v>
+        <v>2.3025403175521427E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.302789237088286</v>
+        <v>1.2588436568720912E-2</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.367925365773345</v>
+        <v>6.2900801070095269E-2</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>13.204929875753926</v>
+        <v>7.5233885724893979E-2</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>13.737158873789671</v>
+        <v>9.037296773610079E-2</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>15.04924443569667</v>
+        <v>0.13331139040944953</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>16.902188236285372</v>
+        <v>0.85932763908838361</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>19.381030874047671</v>
+        <v>2.2043440615534737</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>22.130970716572296</v>
+        <v>3.6184067088095455</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>25.091334529143523</v>
+        <v>5.3134511532747837</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>28.056935832064688</v>
+        <v>7.2034870003067928</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>34.647721367147682</v>
+        <v>12.518051212833837</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>47.097829998616611</v>
+        <v>23.102856116736518</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>65.812566691023562</v>
+        <v>38.505532570661977</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>80.471908491039457</v>
+        <v>48.399132640978507</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>96.394557272995542</v>
+        <v>61.180559379089772</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>111.09121736759832</v>
+        <v>71.767894125751113</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>15.933132534590513</v>
+        <v>-23.390190707256693</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>2.8299911674428273</v>
+        <v>-14.363661920090536</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>2985.5915034281898</v>
+        <v>107.1884324317505</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.171197833049167</v>
+        <v>2.3811003113656786E-5</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.937579110181936</v>
+        <v>4.8761838618454169E-8</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.669518949543093</v>
+        <v>8.8772341271519656E-8</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.987127728257363</v>
+        <v>4.2958066082244096E-7</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.899814124183202</v>
+        <v>3.1236956563485766E-9</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.7070769198207</v>
+        <v>7.7777681301322088E-6</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.768741120525156</v>
+        <v>1.5319042120097191E-7</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.250794515930011</v>
+        <v>3.635514098496566E-7</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.597429061091503</v>
+        <v>1.2280806572594894E-6</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.543755372993203</v>
+        <v>1.6143476840752835E-5</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>108.72134023112733</v>
+        <v>2.5044338566780362E-4</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>126.42279640806238</v>
+        <v>2.154033220135642E-3</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>151.41118825725229</v>
+        <v>9.8404276942438005E-9</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>172.39505854221554</v>
+        <v>5.4702532309183099E-8</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>185.61770501826183</v>
+        <v>5.1198258907153593E-4</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>202.27223678870487</v>
+        <v>0.4812038870756713</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>219.13438195889762</v>
+        <v>1.5367875624081817</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>254.33968875957771</v>
+        <v>1.5095954150799138</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>296.5962753624737</v>
+        <v>1.6656310432658088</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>343.17394030683505</v>
+        <v>1.5698306949561842</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>272.28154337174971</v>
+        <v>18.944195312378373</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>171.69231368745682</v>
+        <v>81.478221945539431</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>115.91795288061168</v>
+        <v>174.99199214162837</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>382.00181396988239</v>
+        <v>60.251243201076022</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>474.73616340054355</v>
+        <v>105.7675422744495</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>788.97766804738535</v>
+        <v>50.769210443467053</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>253.86471236482669</v>
+        <v>547.10102132183738</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>16.743855829540333</v>
+        <v>-24.580350422461695</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>3.8443912891563312</v>
+        <v>-19.512264702889087</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>238.31310792382428</v>
+        <v>19.184776946298317</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7644651456812781</v>
+        <v>4.8796519459544229E-3</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8926045323714789</v>
+        <v>2.208208292223679E-4</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4469733751454203</v>
+        <v>2.9794687659299209E-4</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9149917775308332</v>
+        <v>6.5542403131289059E-4</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3952962499154955</v>
+        <v>5.5890031815598179E-5</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9790455593741969</v>
+        <v>2.7888650254417491E-3</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4678471543360576</v>
+        <v>3.913954792801929E-4</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0777963898534857</v>
+        <v>6.0295224508219274E-4</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7519957187541806</v>
+        <v>1.1081880062784877E-3</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5678500914778759</v>
+        <v>4.0178945781034169E-3</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.426952586020871</v>
+        <v>1.5825403175521426E-2</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.243789237088286</v>
+        <v>4.6411563431279085E-2</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.304925365773345</v>
+        <v>9.9198929904731337E-5</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.129929875753927</v>
+        <v>2.3388572489398129E-4</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.624158873789671</v>
+        <v>2.2627032263899213E-2</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>14.22224443569667</v>
+        <v>0.69368860959055056</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>14.803188236285372</v>
+        <v>1.2396723609116167</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>15.948030874047671</v>
+        <v>1.2286559384465261</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>17.221970716572297</v>
+        <v>1.2905932911904543</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>18.524954529143521</v>
+        <v>1.2529288467252178</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>16.50095583206469</v>
+        <v>4.3524929996932071</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>13.103141367147682</v>
+        <v>9.0265287871661624</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>10.766519998616623</v>
+        <v>13.228453883263469</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>19.544866691023564</v>
+        <v>7.762167429338021</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>21.78844105025744</v>
+        <v>10.28433479980351</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>28.08874628828039</v>
+        <v>7.1252516056253796</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>15.933132534590513</v>
+        <v>23.390190707256693</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>3.9577735367971219E-5</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283395</v>
+        <v>8.1850300077488747E-5</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>1.2849972218579773E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>2.34428877646989E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003899</v>
+        <v>4.7292970256407134E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>7.8914968000389722E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>1.2695838291443984E-3</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819007</v>
+        <v>2.0917315321785125E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>3.2611244858390832E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905596</v>
+        <v>4.7959132943988063E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>6.9607338859429043E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>9.5356269312566189E-3</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872971</v>
+        <v>1.4193171957563356E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>2.6007162598144881E-2</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>5.8995013605020422E-2</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.14726874171713478</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404453</v>
+        <v>0.19158046240636734</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.53229590190861809</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>1.2239253515260824</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>1.5867766242608612</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.92255291189088</v>
+        <v>2.47400827824077</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>4.4220744818780879</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>5.6266655469471143</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>5.7447920737230973</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>5.9041407926520151</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>9.1932314887531312</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9657268315679612</v>
+        <v>1.0627175088187984E-3</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.959584478806011</v>
+        <v>1.1022952441867696E-3</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.727239972434351</v>
+        <v>1.1841455442642584E-3</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.636385477946874</v>
+        <v>1.3126452664500561E-3</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>27.998679828081737</v>
+        <v>1.5470741440970451E-3</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.682528318882127</v>
+        <v>2.0200038466611165E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.711449272342129</v>
+        <v>2.8091535266650137E-3</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.541782836911302</v>
+        <v>4.0787373558094121E-3</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.267698040730309</v>
+        <v>6.1704688879879246E-3</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.04410174507655</v>
+        <v>9.4315933738270078E-3</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.73559608298214</v>
+        <v>1.4227506668225814E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80384541834309</v>
+        <v>2.1188240554168718E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86132255332618</v>
+        <v>3.0723867485425337E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.42582606519915</v>
+        <v>4.4917039442988693E-2</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49130634452325</v>
+        <v>7.0924202041133574E-2</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.99067925772528</v>
+        <v>0.129919215646154</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81375003383272</v>
+        <v>0.27718795736328877</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.33720108787725</v>
+        <v>0.46876841976965611</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.66075959278453</v>
+        <v>1.0010643216782742</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.28246926518204</v>
+        <v>2.2249896732043566</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.73418991440155</v>
+        <v>3.8117662974652178</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6567428262924</v>
+        <v>6.2857745757059877</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6109526375765</v>
+        <v>10.707849057584076</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0870095388595</v>
+        <v>16.33451460453119</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6707971542805</v>
+        <v>22.079306678254287</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3823526646202</v>
+        <v>27.983447470906302</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9825826101276</v>
+        <v>37.176678959659434</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1698.8244977771199</v>
+        <v>-57.981405873348372</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>613.71233495082731</v>
+        <v>-42.722600449054362</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4408545.7483301479</v>
+        <v>339.52108833072737</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.19495132351193</v>
+        <v>2.4978889976086178E-5</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.79378072178511</v>
+        <v>2.4584846152220536E-5</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.59783940244301</v>
+        <v>2.3779867167440554E-5</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.87095406334163</v>
+        <v>2.2543131702842518E-5</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.5301811834679</v>
+        <v>3.0510520707930442E-5</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1344.7928400264041</v>
+        <v>8.2648231293735452E-5</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2180.7329002195515</v>
+        <v>1.0654697890382934E-4</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3663.3508241576646</v>
+        <v>1.4599596023581393E-4</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6122.9867890628802</v>
+        <v>1.442725118583966E-4</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10409.288336929136</v>
+        <v>7.6566434190384166E-5</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17352.370334595023</v>
+        <v>4.938584997195827E-5</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28474.822855260503</v>
+        <v>1.4297291523894106E-3</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>47001.51266193606</v>
+        <v>1.0417487300983836E-3</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72549.867502005174</v>
+        <v>9.0498451587469784E-4</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>104573.52901425233</v>
+        <v>1.7703727738753484E-3</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>169878.89849926505</v>
+        <v>0.48592161991537319</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>253728.5494016466</v>
+        <v>3.3189991186961469</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>365909.09249376302</v>
+        <v>8.7866688612348796</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>518042.59543690953</v>
+        <v>15.271961265899886</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>711856.83928493271</v>
+        <v>18.847669969594801</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>916190.12553493818</v>
+        <v>59.972845870527486</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1177468.4059135541</v>
+        <v>232.83114297646438</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1476904.6098093155</v>
+        <v>656.56175066751371</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1865462.3863092067</v>
+        <v>895.9955879195071</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2172638.6481559295</v>
+        <v>1339.8645851289743</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2399638.1319829742</v>
+        <v>1625.8929993397435</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>2886004.6742476835</v>
+        <v>3361.843427049957</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>1785.265540766582</v>
+        <v>-60.931665422963796</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>833.69530678240812</v>
+        <v>-58.036362411992961</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6649.9686444371682</v>
+        <v>36.962105669693614</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9596662255073554</v>
+        <v>4.9978885517872624E-3</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.953523872745405</v>
+        <v>4.9583108164192912E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.721179366373743</v>
+        <v>4.8764605163418018E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.630324871886266</v>
+        <v>4.7479607941560047E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.991609121011031</v>
+        <v>5.5236329266100262E-3</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.671417207771015</v>
+        <v>9.0911072644499942E-3</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.698317959210819</v>
+        <v>1.0322159604648115E-2</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.525621220749684</v>
+        <v>1.2082878805806749E-2</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.249516222548493</v>
+        <v>1.2011349293830256E-2</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.02591992689473</v>
+        <v>8.7502248079911731E-3</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.72839608298213</v>
+        <v>7.0275066682258134E-3</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.74484541834309</v>
+        <v>3.7811759445831275E-2</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.79832255332619</v>
+        <v>3.227613251457466E-2</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>269.35082606519916</v>
+        <v>3.0082960557011304E-2</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>323.37830634452325</v>
+        <v>4.2075797958866429E-2</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>412.16367925772528</v>
+        <v>0.69708078435384602</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>503.71475003383273</v>
+        <v>1.8218120426367115</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>604.90420108787725</v>
+        <v>2.9642315802303436</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>719.75175959278454</v>
+        <v>3.9079356783217256</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>843.71608926518206</v>
+        <v>4.3413903267956453</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>957.17820991440158</v>
+        <v>7.7442137025347826</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1085.1121628262924</v>
+        <v>15.258805424294012</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1215.2796426375764</v>
+        <v>25.62346094241591</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1365.8193095388594</v>
+        <v>29.933185395468808</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1473.9873297134984</v>
+        <v>36.604160762527727</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1549.0765416799049</v>
+        <v>40.322363513808853</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1698.8244977771199</v>
+        <v>57.981405873348372</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>3.4945901221187939E-5</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>7.3544254293081424E-5</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460577</v>
+        <v>1.1846323892193071E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>2.199385626734027E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187283</v>
+        <v>4.5002901585074391E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>7.6435723690460792E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>1.2481935177687626E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658733</v>
+        <v>2.0791491204506579E-3</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>3.2709306594454444E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359827</v>
+        <v>4.8420207008773378E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>7.050065008455236E-3</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>9.6640216884038635E-3</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371471</v>
+        <v>1.4346860753264305E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>2.6188273584745361E-2</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>5.9220875270643361E-2</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.14744238440837243</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705493</v>
+        <v>0.19100066237233515</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.53054133665668712</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>1.2200139821101668</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>1.5859785792762873</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173104</v>
+        <v>2.4891045853262077</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>4.4884528902283893</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>5.8025626898998475</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>6.0777388597215563</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>6.4430136206652513</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>10.158301330680452</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3110906610150117</v>
+        <v>1.0539805658328204E-3</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.080505005637267</v>
+        <v>1.0889264670540084E-3</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.644220978026118</v>
+        <v>1.1624707213470898E-3</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.368664314772175</v>
+        <v>1.2809339602690205E-3</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.58973672078665</v>
+        <v>1.5008725229424232E-3</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.172606103405379</v>
+        <v>1.9509015387931671E-3</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.273574328069202</v>
+        <v>2.715258775697775E-3</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.267337131115887</v>
+        <v>3.9634522934665377E-3</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.328347217774621</v>
+        <v>6.0426014139171955E-3</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61355480843206</v>
+        <v>9.31353207336264E-3</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.01844956579188</v>
+        <v>1.4155552774239978E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.94921687039508</v>
+        <v>2.1205617782695214E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.92521185817938</v>
+        <v>3.0869639471099077E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26339818455085</v>
+        <v>4.5216500224363382E-2</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.71489645432888</v>
+        <v>7.1404773809108743E-2</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25389944077153</v>
+        <v>0.1306256490797521</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.42558713739589</v>
+        <v>0.27806803348812453</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.72772073445083</v>
+        <v>0.46906869586045968</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.60695191174989</v>
+        <v>0.99961003251714686</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23104754292046</v>
+        <v>2.2196240146273136</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.16731346184156</v>
+        <v>3.8056025939036009</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2296445535726</v>
+        <v>6.2947071792298086</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4146725428118</v>
+        <v>10.783160069458198</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.804793269788</v>
+        <v>16.585722759358045</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2226860026099</v>
+        <v>22.663461619079602</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.2932157352679</v>
+        <v>29.106475239744853</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7476461670874</v>
+        <v>39.264776570425305</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1799.5895613340797</v>
+        <v>-55.893308262582501</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>712.90449678050697</v>
+        <v>-40.643435441812315</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4409098.601161452</v>
+        <v>339.39602896443722</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>68.973524213695981</v>
+        <v>2.5066298844913395E-5</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.64331875931488</v>
+        <v>2.4717597980941904E-5</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.27573907538149</v>
+        <v>2.3991729801697598E-5</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>374.91042238061095</v>
+        <v>2.2845265386740296E-5</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.47280036933682</v>
+        <v>3.1023056889472622E-5</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1167.0077401085462</v>
+        <v>8.3909439408785249E-5</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1958.9868158785644</v>
+        <v>1.0849418833913359E-4</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3393.1994488740079</v>
+        <v>1.4879520175423098E-4</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5823.2413433132106</v>
+        <v>1.4736058373808844E-4</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10119.429067047568</v>
+        <v>7.8646498501425528E-5</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17163.947512790201</v>
+        <v>4.8379714395237444E-5</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28523.905354529084</v>
+        <v>1.4284153271877243E-3</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47463.943355738244</v>
+        <v>1.0323600677171541E-3</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73543.147309902517</v>
+        <v>8.8705685888534631E-4</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>106016.59497465551</v>
+        <v>1.7301628418714063E-3</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>171749.65498009135</v>
+        <v>0.48493723661959676</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>255354.95966792817</v>
+        <v>3.3157932266648067</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>366381.69894899684</v>
+        <v>8.7848887756583167</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>516526.74608214397</v>
+        <v>15.283329917855582</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>708399.41259013489</v>
+        <v>18.894287596373289</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>913193.02064071898</v>
+        <v>60.06834993692955</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1180884.4295238024</v>
+        <v>232.55862104966539</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1498380.0784541168</v>
+        <v>652.70796487344251</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1925259.185199572</v>
+        <v>881.0197729139868</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2293829.0445618718</v>
+        <v>1297.4408193954757</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2604955.3426934248</v>
+        <v>1536.5879228469062</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3238522.5892625852</v>
+        <v>3124.0619085360731</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>1891.1578185838498</v>
+        <v>-58.737319441295234</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>968.44254107684515</v>
+        <v>-55.211928210743288</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6634.8027541769025</v>
+        <v>36.963900700528896</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3050300549544058</v>
+        <v>5.0066254947732404E-3</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.074444399576661</v>
+        <v>4.9716795935520527E-3</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.638160371965512</v>
+        <v>4.8981353392589713E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.362603708711568</v>
+        <v>4.7796721003370403E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.582666013715944</v>
+        <v>5.5698345477646479E-3</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.161494992294266</v>
+        <v>9.1602095723179421E-3</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.260443014937891</v>
+        <v>1.0416054355615354E-2</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.251175514954269</v>
+        <v>1.2198163868149623E-2</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.310165399592805</v>
+        <v>1.2139216767900985E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.59537299025024</v>
+        <v>8.868286108455541E-3</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>131.01124956579187</v>
+        <v>6.9555527742399771E-3</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.89021687039508</v>
+        <v>3.7794382217304787E-2</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.86221185817939</v>
+        <v>3.213036052890092E-2</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>271.18839818455086</v>
+        <v>2.9783499775636615E-2</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>325.60189645432888</v>
+        <v>4.159522619089126E-2</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>414.42689944077154</v>
+        <v>0.69637435092024802</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>505.3265871373959</v>
+        <v>1.8209319665118757</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>605.29472073445083</v>
+        <v>2.9639313041395403</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>718.6979519117499</v>
+        <v>3.9093899674828529</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>841.66466754292048</v>
+        <v>4.3467559853726883</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>955.61133346184158</v>
+        <v>7.7503774060963995</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1086.6850645535726</v>
+        <v>15.249872820770191</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1224.0833625428118</v>
+        <v>25.54814993054179</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1387.5370932697879</v>
+        <v>29.681977240641952</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1514.5392185618277</v>
+        <v>36.020005821702412</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1613.9874047505527</v>
+        <v>39.199335744970298</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1799.5895613340797</v>
+        <v>55.893308262582501</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737854</v>
+        <v>2.177748034086404E-5</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>5.0859813263513928E-5</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>9.31743303231329E-5</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129835</v>
+        <v>1.8705301837462795E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>4.0442469378654733E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573258</v>
+        <v>7.2928414977208467E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>1.2416300068727047E-3</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398944</v>
+        <v>2.1173356201373713E-3</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>3.3778256970457658E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687781</v>
+        <v>5.0245536123463223E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>7.2882455709316635E-3</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>9.9020402024081119E-3</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290275</v>
+        <v>1.4529238642628839E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>2.6285536573056933E-2</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>5.9135469573427427E-2</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.14665817960093011</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441171</v>
+        <v>0.18884476645140674</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.5258805811149404</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>1.2135017887882666</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>1.5926653148133165</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584672</v>
+        <v>2.5344013909774841</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>4.6400789643364959</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>6.1531797252242111</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>6.6874292486690656</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>7.3812672376754414</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485074</v>
+        <v>11.807727075626431</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6279419827444066</v>
+        <v>1.0292522275279499E-3</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.753838132718192</v>
+        <v>1.0510297078688139E-3</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.822176145934792</v>
+        <v>1.1018895211323278E-3</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.227969197108509</v>
+        <v>1.1950638514554607E-3</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.397841179721492</v>
+        <v>1.3821168698300887E-3</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.202751177299234</v>
+        <v>1.786541563616636E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.095512075872492</v>
+        <v>2.5158257133887207E-3</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.203254484038297</v>
+        <v>3.7574557202614254E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.783191723437241</v>
+        <v>5.8747913403987967E-3</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.875448268139493</v>
+        <v>9.2526170374445625E-3</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.23058460182727</v>
+        <v>1.4277170649790885E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.95915722436681</v>
+        <v>2.1565416220722548E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.28826597030346</v>
+        <v>3.146745642313066E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.05088415059373</v>
+        <v>4.5996695065759499E-2</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.77486560343277</v>
+        <v>7.2282231638816433E-2</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79141859972441</v>
+        <v>0.13141770121224386</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.43995931421279</v>
+        <v>0.27807588081317397</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.93410777565396</v>
+        <v>0.46692064726458071</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67315312490632</v>
+        <v>0.99280122837952112</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.13810635810898</v>
+        <v>2.2063030171677878</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.48081626375949</v>
+        <v>3.7989683319811043</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0375568996062</v>
+        <v>6.3333697229585884</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6590648421798</v>
+        <v>10.973448687295084</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5678929879857</v>
+        <v>17.126628412519295</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.0967734202404</v>
+        <v>23.814057661188361</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0284619691768</v>
+        <v>31.195324898863802</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1451317740275</v>
+        <v>43.003051974490234</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>1979.9870469410198</v>
+        <v>-52.155032858517572</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>886.49407004141347</v>
+        <v>-36.943822581476162</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4409849.68254703</v>
+        <v>338.50191892394724</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.118024706768944</v>
+        <v>2.5314521393629794E-5</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.036946495949998</v>
+        <v>2.5095855233904213E-5</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.723893212411113</v>
+        <v>2.4588869718850357E-5</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.81886679002633</v>
+        <v>2.3673500989026101E-5</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.00197952302557</v>
+        <v>3.2360058473513624E-5</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>794.76856962150339</v>
+        <v>8.6947597246061315E-5</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1527.4324860838819</v>
+        <v>1.1268857312011143E-4</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2936.2410334718916</v>
+        <v>1.5386319625486974E-4</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5441.2766863224306</v>
+        <v>1.5146290967541718E-4</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9971.473662857843</v>
+        <v>7.9730633076683142E-5</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17483.023435562733</v>
+        <v>5.0086344406261527E-5</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29549.66405376203</v>
+        <v>1.4013480627277422E-3</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49384.068835572114</v>
+        <v>9.9430130442716399E-4</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>76162.688632701946</v>
+        <v>8.4119169710853922E-4</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>108676.94563313577</v>
+        <v>1.6579366603150017E-3</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>173859.3263782062</v>
+        <v>0.48383473438685937</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>255369.48516060886</v>
+        <v>3.3157646478363185</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>363007.58487089019</v>
+        <v>8.7976267267233634</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>509459.26628611475</v>
+        <v>15.336612818841747</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>699852.2533417868</v>
+        <v>19.010271296223255</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>909972.59324084036</v>
+        <v>60.171230017781291</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1195726.8905287627</v>
+        <v>231.38091809237025</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1553332.8724899485</v>
+        <v>643.02113035437617</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2057217.0436053728</v>
+        <v>849.20205326667508</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2542153.7902843459</v>
+        <v>1215.8757383772215</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3009262.675838558</v>
+        <v>1377.1881775281665</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>3920348.70605422</v>
+        <v>2720.1474524730475</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>2080.7344435480013</v>
+        <v>-54.808829906617021</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>1204.254670460841</v>
+        <v>-50.186202470977584</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6600.4285794454299</v>
+        <v>36.951983066052243</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6218813766838007</v>
+        <v>5.0313538330781105E-3</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7477775266575861</v>
+        <v>5.0095763527372465E-3</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8161155398741862</v>
+        <v>4.9587165394737332E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.221908591047903</v>
+        <v>4.8655422091506001E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.390770472650786</v>
+        <v>5.688590200876982E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.191640066188121</v>
+        <v>9.3245695474944747E-3</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.082380762741181</v>
+        <v>1.0615487417924408E-2</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.187092867876679</v>
+        <v>1.2404160441354737E-2</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.765009905255425</v>
+        <v>1.2307026841419384E-2</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.857266449957677</v>
+        <v>8.9292011443736184E-3</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.22338460182726</v>
+        <v>7.0771706497908841E-3</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.90015722436681</v>
+        <v>3.7434583779277449E-2</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.22526597030347</v>
+        <v>3.153254357686934E-2</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>275.97588415059374</v>
+        <v>2.9003304934240498E-2</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>329.66186560343277</v>
+        <v>4.0717768361183571E-2</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>416.96441859972441</v>
+        <v>0.69558229878775624</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>505.3409593142128</v>
+        <v>1.8209241191868262</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>602.50110777565396</v>
+        <v>2.9660793527354192</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>713.76415312490633</v>
+        <v>3.9161987716204787</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>836.571726358109</v>
+        <v>4.3600769828322132</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>953.92483626375952</v>
+        <v>7.7570116680188956</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1093.4929768996062</v>
+        <v>15.211210277041411</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1246.3277548421797</v>
+        <v>25.357861312704905</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1434.3001929879856</v>
+        <v>29.141071587480702</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1594.4133059794583</v>
+        <v>34.869409779593653</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1734.7226509844616</v>
+        <v>37.110486085851349</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>1979.9870469410198</v>
+        <v>52.155032858517572</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983957</v>
+        <v>2.1280084617842287E-5</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>4.9996415444739442E-5</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>9.2182748942015507E-5</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336925</v>
+        <v>1.8575260147137376E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>4.0259759832545123E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412962</v>
+        <v>7.2775013707557625E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>1.2409577190854336E-3</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613796</v>
+        <v>2.1179192853561539E-3</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>3.3803150691586858E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.41188703743218</v>
+        <v>5.0290786184387405E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>7.294163113439946E-3</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>9.9080020967225527E-3</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547824</v>
+        <v>1.4533959830723323E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>2.6288653453739798E-2</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>5.91359913270353E-2</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.14664842679942003</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634772</v>
+        <v>0.18881056280140862</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.52580902073034608</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>1.2134065027835543</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>1.592794653957839</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791261</v>
+        <v>2.5352005588986972</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>4.6427454716610219</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>6.1593887165380234</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>6.6983934054323484</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>7.398486479421468</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957997012</v>
+        <v>11.838565303447378</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4754169400370216</v>
+        <v>1.028446852530241E-3</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5707241728354173</v>
+        <v>1.0497269371480833E-3</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6140005022341644</v>
+        <v>1.0997233525928227E-3</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.002153953733538</v>
+        <v>1.1919061015348382E-3</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.165393270467231</v>
+        <v>1.377658703006212E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.974458954855709</v>
+        <v>1.7802563013316632E-3</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.892493117268671</v>
+        <v>2.5080064384072395E-3</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.03572542101503</v>
+        <v>3.748964157492673E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.663253578628826</v>
+        <v>5.8668834428488269E-3</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.809792079916818</v>
+        <v>9.2471985120075127E-3</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.221679117349</v>
+        <v>1.4276277130446253E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00118633973057</v>
+        <v>2.1570440243886199E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.36844461405946</v>
+        <v>3.1478442340608752E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.14726718660728</v>
+        <v>4.6012402171332074E-2</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86196358224481</v>
+        <v>7.2301055625071872E-2</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85339707757134</v>
+        <v>0.13143704695210717</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.45752853752612</v>
+        <v>0.2780854737515272</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.90210067716089</v>
+        <v>0.46689603655293582</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.60346558090259</v>
+        <v>0.99270505728328196</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.0649076537685</v>
+        <v>2.2061115600668364</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.46502524424739</v>
+        <v>3.7989062140246754</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.16734069216</v>
+        <v>6.3341067729233727</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0569344805083</v>
+        <v>10.976852244584395</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.3989299095756</v>
+        <v>17.136240961122418</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5252031236755</v>
+        <v>23.834634366554766</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2130629342778</v>
+        <v>31.233120845976234</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4572025142479</v>
+        <v>43.071686149423613</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>1983.2991176812402</v>
+        <v>-52.086398683584193</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>889.67635698908009</v>
+        <v>-36.875925456507566</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4409971.4993488677</v>
+        <v>338.48296468938258</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.036433372102275</v>
+        <v>2.5322626295422264E-5</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.965480611390966</v>
+        <v>2.510890958990699E-5</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.096629256136453</v>
+        <v>2.4610357242664758E-5</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.89844230142864</v>
+        <v>2.3704239291460123E-5</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.04132344314837</v>
+        <v>3.2410799716981422E-5</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>781.94882263025556</v>
+        <v>8.7064851481184218E-5</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1511.6047742970152</v>
+        <v>1.1285464509153907E-4</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2918.1132736666286</v>
+        <v>1.5407392977547088E-4</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5423.5965946013894</v>
+        <v>1.5165761762507419E-4</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9958.365478630014</v>
+        <v>7.9827428644167693E-5</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17480.668488271913</v>
+        <v>5.0073698026876649E-5</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29564.115443286628</v>
+        <v>1.4009719435364935E-3</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49419.710705054662</v>
+        <v>9.9360859727432699E-4</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>76215.89670955349</v>
+        <v>8.4028082787659323E-4</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>108734.37898356462</v>
+        <v>1.6564040732334941E-3</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>173911.01585950021</v>
+        <v>0.48380782165270519</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>255387.24236561361</v>
+        <v>3.3157297119027005</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>362969.01727074705</v>
+        <v>8.797772721976381</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>509359.79020081018</v>
+        <v>15.337366078348539</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>699729.78676692257</v>
+        <v>19.011940868277197</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>909942.46659879165</v>
+        <v>60.172193721065547</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1196010.7427039414</v>
+        <v>231.35849579161484</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1554324.7827363133</v>
+        <v>642.84852807115396</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2059601.6470617708</v>
+        <v>848.64190573380222</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2546710.8453473896</v>
+        <v>1214.4411666353551</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3016846.8018749813</v>
+        <v>1374.3843541229501</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>3933475.3901951858</v>
+        <v>2712.9929278252812</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>2084.2150419081222</v>
+        <v>-54.736703428815545</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>1208.5776366813541</v>
+        <v>-50.093967866576364</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6598.9574974862389</v>
+        <v>36.951587812476717</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4693563339764157</v>
+        <v>5.0321592080758201E-3</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5646635667748114</v>
+        <v>5.0108791234579775E-3</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6079398961735585</v>
+        <v>4.9608827080132381E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.996093347672932</v>
+        <v>4.8686999590712224E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.158322563396524</v>
+        <v>5.6930483677008594E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.963347843744597</v>
+        <v>9.3308548097794462E-3</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.879361804137361</v>
+        <v>1.062330669290589E-2</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.019563804853412</v>
+        <v>1.2412652004123489E-2</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.64507176044701</v>
+        <v>1.2314934738969354E-2</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.791610261735002</v>
+        <v>8.9346196698106683E-3</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.21447911734899</v>
+        <v>7.0762771304462525E-3</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.94218633973057</v>
+        <v>3.7429559756113798E-2</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.30544461405947</v>
+        <v>3.1521557659391249E-2</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>276.07226718660729</v>
+        <v>2.8987597828667923E-2</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>329.74896358224481</v>
+        <v>4.0698944374928131E-2</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>417.02639707757135</v>
+        <v>0.69556295304789284</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>505.35852853752613</v>
+        <v>1.8209145262484729</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>602.4691006771609</v>
+        <v>2.9661039634470638</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>713.6944655809026</v>
+        <v>3.9162949427167177</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>836.49852765376852</v>
+        <v>4.360268439933165</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>953.90904524424741</v>
+        <v>7.757073785975324</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1093.62276069216</v>
+        <v>15.210473227076626</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1246.7256244805083</v>
+        <v>25.354457755415595</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1435.1312299095755</v>
+        <v>29.13145903887758</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1595.8417356828934</v>
+        <v>34.848833074227251</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1736.9072519495626</v>
+        <v>37.07269013873892</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>1983.2991176812402</v>
+        <v>52.086398683584193</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
